--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2867561.028579906</v>
+        <v>2860635.081498367</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223169</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>102.1242129758052</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -674,7 +674,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>83.44220451484571</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>87.70688869720382</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>118.8085952442022</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -835,10 +835,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>109.4449070220129</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>96.63087227190233</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>328.5613320399563</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>252.6668682869295</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>17.567492884836</v>
+        <v>221.5993449429244</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>51.69146159879698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>239.7289932625592</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>372.4089305243873</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1151,7 +1151,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>70.42393430236268</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95.35420068589659</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>194.7526909763839</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>64.76190287132404</v>
+        <v>300.9267914787027</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1430,13 +1430,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
@@ -1667,13 +1667,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>30.2658713680261</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>175.5308988449126</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422874555</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541626</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.903426900358</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.556883668935</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303129</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752493</v>
+        <v>204.8123861026103</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453488</v>
+        <v>20.92391191189587</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443501</v>
+        <v>48.81858568179599</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622526</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274705</v>
+        <v>251.2592108548315</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897098</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046333</v>
+        <v>67.32610467782432</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074574</v>
+        <v>52.47323292810673</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258546</v>
+        <v>38.04694813994645</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546457</v>
+        <v>37.97339019282556</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523184</v>
+        <v>39.72284161259283</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762398</v>
+        <v>50.54167953498497</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419602</v>
+        <v>37.89393170155701</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536795</v>
+        <v>15.73364728272894</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982387</v>
+        <v>6.632145647184856</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535119</v>
+        <v>84.75808915271217</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595233</v>
+        <v>117.3320274868843</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865931</v>
+        <v>166.5545700139541</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734591</v>
+        <v>147.2897179008201</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.4672642215702</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409218</v>
+        <v>115.7096851682828</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175981</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252672</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E41" t="n">
         <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589425</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822805</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812818</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>15.34907379845741</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>152.8208635826923</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
         <v>296.0589625183731</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.8890990341565</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443891</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627863</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915775</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892501</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131715</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788919</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906112</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351704</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090444</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432165</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
         <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840511</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252672</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E44" t="n">
         <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>136.836152242972</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822805</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812818</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995156</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111636</v>
+        <v>62.44821631492707</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.8890990341565</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443891</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627863</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915775</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892501</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131715</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788919</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906112</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351704</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090444</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432165</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
         <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1384.004396509642</v>
+        <v>628.0506498235094</v>
       </c>
       <c r="C2" t="n">
-        <v>990.8288950125727</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="D2" t="n">
-        <v>605.3877662292405</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="E2" t="n">
-        <v>202.8042413457849</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="F2" t="n">
-        <v>189.9502069161668</v>
+        <v>512.0408447112596</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>502.9184932396669</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061575</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>187.1405114458669</v>
+        <v>497.3961679446655</v>
       </c>
       <c r="L2" t="n">
-        <v>539.8580957877601</v>
+        <v>990.7164596631943</v>
       </c>
       <c r="M2" t="n">
-        <v>1065.680985183616</v>
+        <v>990.7164596631943</v>
       </c>
       <c r="N2" t="n">
-        <v>1591.503874579471</v>
+        <v>1491.883242658645</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579471</v>
+        <v>1491.883242658645</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710993</v>
+        <v>1840.070734790167</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851941</v>
+        <v>1986.923381216638</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.536926851941</v>
+        <v>1820.409826157688</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.536926851941</v>
+        <v>1596.909223717105</v>
       </c>
       <c r="U2" t="n">
-        <v>1868.78419728654</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="V2" t="n">
-        <v>1868.78419728654</v>
+        <v>999.0496848552219</v>
       </c>
       <c r="W2" t="n">
-        <v>1784.499142221039</v>
+        <v>628.0506498235094</v>
       </c>
       <c r="X2" t="n">
-        <v>1784.499142221039</v>
+        <v>628.0506498235094</v>
       </c>
       <c r="Y2" t="n">
-        <v>1784.499142221039</v>
+        <v>628.0506498235094</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>657.7430775364724</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>569.1502606706099</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>439.0612932920903</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>302.614802402978</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512724</v>
+        <v>89.88557988671073</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K3" t="n">
-        <v>155.6057207567662</v>
+        <v>473.3524541805762</v>
       </c>
       <c r="L3" t="n">
-        <v>639.1718066550794</v>
+        <v>473.3524541805762</v>
       </c>
       <c r="M3" t="n">
-        <v>639.1718066550794</v>
+        <v>473.3524541805762</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896721</v>
+        <v>883.7630516643766</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580653</v>
+        <v>1384.929834659828</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297051</v>
+        <v>1790.551203376225</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750006</v>
+        <v>2000.99925182918</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649874</v>
+        <v>1866.068574729049</v>
       </c>
       <c r="T3" t="n">
-        <v>1845.680524585024</v>
+        <v>1689.084762927958</v>
       </c>
       <c r="U3" t="n">
-        <v>1635.617381263665</v>
+        <v>1479.021619606599</v>
       </c>
       <c r="V3" t="n">
-        <v>1413.077379634733</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="W3" t="n">
-        <v>1182.960133768019</v>
+        <v>1026.364372110953</v>
       </c>
       <c r="X3" t="n">
-        <v>993.6530561180311</v>
+        <v>837.0572944609651</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>657.7430775364724</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>820.0367717111683</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="C4" t="n">
-        <v>820.0367717111683</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="D4" t="n">
-        <v>820.0367717111683</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="E4" t="n">
-        <v>664.4779595703708</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="F4" t="n">
-        <v>507.1520247833437</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="G4" t="n">
-        <v>338.8979708827893</v>
+        <v>329.0713023000504</v>
       </c>
       <c r="H4" t="n">
-        <v>183.4194198442833</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093687</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="S4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="T4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="U4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="V4" t="n">
-        <v>820.0367717111683</v>
+        <v>720.4374173839616</v>
       </c>
       <c r="W4" t="n">
-        <v>820.0367717111683</v>
+        <v>720.4374173839616</v>
       </c>
       <c r="X4" t="n">
-        <v>820.0367717111683</v>
+        <v>720.4374173839616</v>
       </c>
       <c r="Y4" t="n">
-        <v>820.0367717111683</v>
+        <v>497.3253562006049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1587.024336761279</v>
+        <v>851.9562446235697</v>
       </c>
       <c r="C5" t="n">
-        <v>1193.84883526421</v>
+        <v>851.9562446235697</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.84883526421</v>
+        <v>466.5151158402374</v>
       </c>
       <c r="E5" t="n">
-        <v>791.2653103807543</v>
+        <v>466.5151158402374</v>
       </c>
       <c r="F5" t="n">
-        <v>374.370871910732</v>
+        <v>453.6610814106192</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>57.35656705233697</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733288</v>
+        <v>57.35656705233697</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>550.6768587708658</v>
       </c>
       <c r="M5" t="n">
-        <v>1565.266048587713</v>
+        <v>550.6768587708658</v>
       </c>
       <c r="N5" t="n">
-        <v>2091.088937983568</v>
+        <v>1051.843641766317</v>
       </c>
       <c r="O5" t="n">
-        <v>2091.088937983568</v>
+        <v>1491.883242658645</v>
       </c>
       <c r="P5" t="n">
-        <v>2091.088937983568</v>
+        <v>1840.070734790167</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851941</v>
+        <v>1986.923381216638</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.023371792992</v>
+        <v>1986.923381216638</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.023371792992</v>
+        <v>1763.422778776054</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.023371792992</v>
+        <v>1507.670049210653</v>
       </c>
       <c r="V5" t="n">
-        <v>1958.023371792992</v>
+        <v>1507.670049210653</v>
       </c>
       <c r="W5" t="n">
-        <v>1587.024336761279</v>
+        <v>1252.450990334966</v>
       </c>
       <c r="X5" t="n">
-        <v>1587.024336761279</v>
+        <v>1252.450990334966</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.024336761279</v>
+        <v>1252.450990334966</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>689.2100785987456</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987456</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202259</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>298.2428142142454</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512724</v>
+        <v>89.88557988671073</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="L6" t="n">
-        <v>155.6057207567662</v>
+        <v>382.5962686689254</v>
       </c>
       <c r="M6" t="n">
-        <v>676.5723861487071</v>
+        <v>382.5962686689254</v>
       </c>
       <c r="N6" t="n">
-        <v>1202.395275544563</v>
+        <v>883.7630516643766</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.915558135544</v>
+        <v>1384.929834659828</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851941</v>
+        <v>1790.551203376225</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851941</v>
+        <v>2000.99925182918</v>
       </c>
       <c r="S6" t="n">
-        <v>1989.60624975181</v>
+        <v>1866.068574729049</v>
       </c>
       <c r="T6" t="n">
-        <v>1812.622437950718</v>
+        <v>1866.068574729049</v>
       </c>
       <c r="U6" t="n">
-        <v>1602.55929462936</v>
+        <v>1656.005431407691</v>
       </c>
       <c r="V6" t="n">
-        <v>1380.019293000427</v>
+        <v>1433.465429778758</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1209.627707614188</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1020.3206299642</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>841.0064130397069</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.8166733240659</v>
+        <v>210.7034438326331</v>
       </c>
       <c r="C7" t="n">
-        <v>199.8166733240659</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="D7" t="n">
-        <v>199.8166733240659</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="E7" t="n">
-        <v>199.8166733240659</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="F7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862232</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R7" t="n">
-        <v>891.7241635040489</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="S7" t="n">
-        <v>688.9080796865983</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="T7" t="n">
-        <v>688.9080796865983</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="U7" t="n">
-        <v>688.9080796865983</v>
+        <v>699.7948501951655</v>
       </c>
       <c r="V7" t="n">
-        <v>422.9287345074225</v>
+        <v>433.8155050159897</v>
       </c>
       <c r="W7" t="n">
-        <v>422.9287345074225</v>
+        <v>433.8155050159897</v>
       </c>
       <c r="X7" t="n">
-        <v>422.9287345074225</v>
+        <v>433.8155050159897</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.8166733240659</v>
+        <v>210.7034438326331</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2365.64850507718</v>
+        <v>1731.508953764728</v>
       </c>
       <c r="C8" t="n">
-        <v>1989.47786818386</v>
+        <v>1338.333452267659</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>1338.333452267659</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>173.6308686433316</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>173.6308686433316</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>666.9511603618604</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2127.999662844127</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2127.999662844127</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>2127.999662844127</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>1731.508953764728</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>852.4426182128975</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>682.2375002788867</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>526.6043871814015</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>429.2408786679802</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252417</v>
+        <v>1320.171044252415</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.171044252417</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D11" t="n">
-        <v>1029.670596756273</v>
+        <v>731.4357765463899</v>
       </c>
       <c r="E11" t="n">
-        <v>722.0277531600054</v>
+        <v>731.4357765463899</v>
       </c>
       <c r="F11" t="n">
-        <v>400.0739959771718</v>
+        <v>409.4820193635564</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H11" t="n">
         <v>105.5155633244624</v>
@@ -5072,19 +5072,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993115</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2221.787060248589</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468836</v>
+        <v>1927.275136468834</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676625</v>
+        <v>1625.725108676623</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>691.2836731261136</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O12" t="n">
-        <v>1829.234834439669</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2234.856203156066</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082774</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
         <v>296.5093676443719</v>
@@ -5197,13 +5197,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757663</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
         <v>836.8050913469767</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852098</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553811</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1572.977054970837</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C14" t="n">
         <v>1572.977054970837</v>
@@ -5270,16 +5270,16 @@
         <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244625</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2626.405335146509</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2350.346981401985</v>
+        <v>2467.273826752683</v>
       </c>
       <c r="X14" t="n">
-        <v>2055.83505762223</v>
+        <v>2172.761902972929</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.531119395045</v>
+        <v>1871.211875180718</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.973980501895</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.973980501895</v>
+        <v>2150.837595685923</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669550998</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082773</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979805</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445335</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798495</v>
@@ -5449,37 +5449,37 @@
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852094</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553808</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592126</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
@@ -5507,7 +5507,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,16 +5540,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343054</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924135</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,22 +5777,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>84.60386270860994</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -5972,28 +5972,28 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6072,16 +6072,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>568.1699486069232</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,58 +6218,58 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958355</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>95.84959395204436</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>95.84959395204436</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>579.4156798503576</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6409,25 +6409,25 @@
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286453</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
         <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781098</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144927</v>
+        <v>890.2201666674346</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423744</v>
+        <v>590.5275805474769</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855446</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267667</v>
+        <v>87.68547930209954</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>669.9452253061314</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1271.756024665046</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1817.756924709627</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2345.568208347089</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879803</v>
+        <v>2601.975468713941</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011325</v>
+        <v>2950.162960845463</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152274</v>
+        <v>3249.87805647471</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152274</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491229</v>
+        <v>3278.199034522563</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448549</v>
+        <v>3171.900284432045</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216708</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382474</v>
+        <v>2808.444450270291</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748666</v>
+        <v>2554.647267588643</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079626</v>
+        <v>2282.396514871764</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846599</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.2619674447521</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662325</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771202</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.294703060252</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321165</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327174</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452719</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="L33" t="n">
-        <v>574.5934482858532</v>
+        <v>550.1163006429422</v>
       </c>
       <c r="M33" t="n">
-        <v>574.5934482858532</v>
+        <v>1177.887950269623</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766816</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590208</v>
+        <v>341.68725655548</v>
       </c>
       <c r="C34" t="n">
-        <v>329.727691322914</v>
+        <v>288.6839909715338</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233327</v>
+        <v>250.2527302241131</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804392</v>
+        <v>211.8957704333802</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913161</v>
+        <v>171.7716879964178</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886656</v>
+        <v>120.7194864459279</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806361</v>
+        <v>82.44278775748647</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259937</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="K34" t="n">
-        <v>337.5849411763212</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>610.2030886905065</v>
+        <v>312.5128957283706</v>
       </c>
       <c r="M34" t="n">
-        <v>796.4946670287706</v>
+        <v>613.674009554933</v>
       </c>
       <c r="N34" t="n">
-        <v>1038.091194563573</v>
+        <v>810.7134513543758</v>
       </c>
       <c r="O34" t="n">
-        <v>1200.795961605281</v>
+        <v>1088.287753884382</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022246</v>
+        <v>1323.033455149259</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392297</v>
+        <v>1326.45565151931</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422778</v>
+        <v>1319.756514501952</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003231</v>
+        <v>1234.142283034566</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569369</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209174</v>
+        <v>947.38814414483</v>
       </c>
       <c r="V34" t="n">
-        <v>872.197091427902</v>
+        <v>798.6106513157188</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569835</v>
+        <v>632.482101596961</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378707</v>
+        <v>515.6036317300087</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.754219152418</v>
+        <v>409.6934228967166</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,16 +6959,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573995</v>
@@ -7014,19 +7014,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,22 +7096,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,16 +7336,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1853.707880260105</v>
+        <v>1812.812015342702</v>
       </c>
       <c r="C41" t="n">
-        <v>1557.973630753168</v>
+        <v>1517.077765835766</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.973753959969</v>
+        <v>1229.077889042567</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666468</v>
+        <v>923.9356161492445</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867576</v>
+        <v>604.4824296693555</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648939</v>
+        <v>288.7609261474919</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215176</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>3021.379967189024</v>
+        <v>2861.290827899428</v>
       </c>
       <c r="W41" t="n">
-        <v>2747.822184147445</v>
+        <v>2706.926319230041</v>
       </c>
       <c r="X41" t="n">
-        <v>2455.810831070635</v>
+        <v>2414.914966153231</v>
       </c>
       <c r="Y41" t="n">
-        <v>2156.761373981369</v>
+        <v>2115.865509063966</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>494.9732559860694</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344871</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906094</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832572</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325928</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356988</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252775</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690454</v>
+        <v>97.77230107690444</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822075</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676788</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170081</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308015</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.30013383754</v>
+        <v>1125.300133837541</v>
       </c>
       <c r="O43" t="n">
         <v>1383.507071954778</v>
@@ -7588,31 +7588,31 @@
         <v>1598.885408806886</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237701</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860411</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423495</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234452</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557627</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288789</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356553</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1765.284417415691</v>
+        <v>1853.707880260105</v>
       </c>
       <c r="C44" t="n">
-        <v>1469.550167908754</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.550291115555</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E44" t="n">
-        <v>876.4080182222324</v>
+        <v>964.8314810666465</v>
       </c>
       <c r="F44" t="n">
-        <v>556.9548317423432</v>
+        <v>645.3782945867574</v>
       </c>
       <c r="G44" t="n">
-        <v>241.23332822048</v>
+        <v>329.6567910648937</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215176</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7655,10 +7655,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,31 +7667,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
         <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3036.88408213696</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2878.572604561692</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2633.907047255344</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.349264213764</v>
+        <v>2444.76869042618</v>
       </c>
       <c r="X44" t="n">
-        <v>2068.337911136955</v>
+        <v>2152.75733734937</v>
       </c>
       <c r="Y44" t="n">
-        <v>2068.337911136955</v>
+        <v>1853.707880260105</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344871</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906094</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832572</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325928</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356988</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252775</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690454</v>
+        <v>97.77230107690445</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>68.23195016744199</v>
+        <v>68.2319501674404</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529133</v>
+        <v>245.5691623529118</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022426</v>
+        <v>505.1989733022411</v>
       </c>
       <c r="M46" t="n">
-        <v>786.992722716036</v>
+        <v>786.9927227160347</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822775</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940012</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.26980279212</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237701</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860411</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423495</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234452</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557627</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288789</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356553</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>458.4604932168284</v>
       </c>
       <c r="L2" t="n">
-        <v>509.5285579546262</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107125</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507694</v>
+        <v>655.3475650705631</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
@@ -8058,19 +8058,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>417.5522919800178</v>
+        <v>499.9282719287125</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216679</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>134.7083643602397</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107125</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507694</v>
+        <v>655.3475650705631</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>178.2845457601828</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,22 +8298,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>321.3562666049745</v>
       </c>
       <c r="M6" t="n">
-        <v>618.6160769906663</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671519</v>
+        <v>591.6011865869456</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216679</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>245.273674853243</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>143.0584031792374</v>
@@ -8462,13 +8462,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>312.0396197609155</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>270.6001074205032</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>288.3536975034276</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>238.0573041899393</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,16 +9012,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>320.902235706038</v>
+        <v>319.0197961262124</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9170,7 +9170,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9246,22 +9246,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>206.6446779083334</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,25 +9480,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>112.3087888732267</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>571.8744206036794</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,10 +9720,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>486.9652344155852</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>410.5599720504884</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9732,7 +9732,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9951,22 +9951,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>105.1563108732264</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,16 +10188,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>115.098975589205</v>
+        <v>403.0555909136999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,19 +10428,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>278.2539578070003</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>658.1108392979579</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10595,7 +10595,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
         <v>594.0482827698827</v>
@@ -10662,22 +10662,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
@@ -10911,13 +10911,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>658.1108392979579</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>292.8810966026122</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11139,19 +11139,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>543.8532815002535</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>250.2779506112363</v>
+        <v>14.11306200385772</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>243.0318988390528</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>123.0036286693758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25676,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812799</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459457</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995156</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>226.8698279348276</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>118.0013416284713</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>87.53922821597047</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459457</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25925,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>208.3739888962365</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627061.6539279814</v>
+        <v>627061.6539279813</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>667229.0589454198</v>
+        <v>667229.0589454197</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>629795.7916877202</v>
+        <v>629795.7916877201</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595096.1877080774</v>
+        <v>595096.1877080776</v>
       </c>
       <c r="C2" t="n">
         <v>595096.1877080776</v>
       </c>
       <c r="D2" t="n">
-        <v>595096.1877080777</v>
+        <v>595096.1877080775</v>
       </c>
       <c r="E2" t="n">
-        <v>559271.2048546863</v>
+        <v>559271.2048546865</v>
       </c>
       <c r="F2" t="n">
         <v>559271.2048546864</v>
@@ -26329,7 +26329,7 @@
         <v>595096.1877080778</v>
       </c>
       <c r="H2" t="n">
-        <v>595096.1877080777</v>
+        <v>595096.1877080778</v>
       </c>
       <c r="I2" t="n">
         <v>595096.1877080778</v>
@@ -26338,22 +26338,22 @@
         <v>595096.1877080771</v>
       </c>
       <c r="K2" t="n">
-        <v>595096.1877080771</v>
+        <v>595096.1877080769</v>
       </c>
       <c r="L2" t="n">
-        <v>595096.1877080777</v>
+        <v>595096.1877080773</v>
       </c>
       <c r="M2" t="n">
-        <v>595096.1877080777</v>
+        <v>595096.1877080778</v>
       </c>
       <c r="N2" t="n">
         <v>595096.1877080778</v>
       </c>
       <c r="O2" t="n">
-        <v>561709.7601539131</v>
+        <v>561709.7601539129</v>
       </c>
       <c r="P2" t="n">
-        <v>561709.7601539129</v>
+        <v>561709.7601539132</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343508</v>
+        <v>169649.0058765501</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602651</v>
+        <v>26460.41160941801</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301432</v>
+        <v>29094.95587301433</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469666</v>
+        <v>215329.5897923935</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.0333767011</v>
+        <v>46725.80335481232</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436854</v>
+        <v>43782.97194555662</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015671</v>
+        <v>18983.55983015684</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170591.5484883814</v>
+        <v>177303.7227646045</v>
       </c>
       <c r="C4" t="n">
-        <v>170591.5484883814</v>
+        <v>177303.7227646045</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704043</v>
+        <v>154346.0890704044</v>
       </c>
       <c r="E4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="F4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183774</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153196</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="I4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="J4" t="n">
         <v>122593.9044797028</v>
@@ -26445,19 +26445,19 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122271.0498250416</v>
+        <v>122137.6552159869</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="O4" t="n">
-        <v>98913.70727082901</v>
+        <v>98913.70727082908</v>
       </c>
       <c r="P4" t="n">
-        <v>98913.70727082901</v>
+        <v>98913.70727082912</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295296</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295296</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,7 +26488,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446767</v>
+        <v>60332.67530588341</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180588.7807971957</v>
+        <v>183737.1313839701</v>
       </c>
       <c r="C6" t="n">
-        <v>358584.0779315467</v>
+        <v>353386.1372605201</v>
       </c>
       <c r="D6" t="n">
-        <v>352440.5189744737</v>
+        <v>344704.229751082</v>
       </c>
       <c r="E6" t="n">
-        <v>276466.8928362274</v>
+        <v>276358.3322821264</v>
       </c>
       <c r="F6" t="n">
-        <v>406919.8239739396</v>
+        <v>406811.2634198383</v>
       </c>
       <c r="G6" t="n">
         <v>385988.0505042243</v>
       </c>
       <c r="H6" t="n">
-        <v>415083.0063772384</v>
+        <v>415083.0063772385</v>
       </c>
       <c r="I6" t="n">
         <v>415083.0063772385</v>
       </c>
       <c r="J6" t="n">
-        <v>186997.3630274883</v>
+        <v>193513.6481820614</v>
       </c>
       <c r="K6" t="n">
-        <v>408843.2379744549</v>
+        <v>408843.2379744546</v>
       </c>
       <c r="L6" t="n">
-        <v>369948.8910418674</v>
+        <v>365900.0538313946</v>
       </c>
       <c r="M6" t="n">
-        <v>372351.7294428698</v>
+        <v>371300.0344316819</v>
       </c>
       <c r="N6" t="n">
         <v>415083.0063772385</v>
       </c>
       <c r="O6" t="n">
-        <v>388492.0852703766</v>
+        <v>388390.9142777879</v>
       </c>
       <c r="P6" t="n">
-        <v>407475.6451005332</v>
+        <v>407374.4741079449</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,19 +26808,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880684</v>
+        <v>831.8776843078621</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>36.3686948412679</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304857</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087637</v>
+        <v>58.4072541935154</v>
       </c>
       <c r="M2" t="n">
-        <v>20.7735979616595</v>
+        <v>14.33013548902041</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769588</v>
+        <v>23.72944978769605</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630977</v>
+        <v>85.18305253651613</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559193</v>
+        <v>646.8007142757128</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455247</v>
+        <v>129.6883820257311</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>36.3686948412679</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304857</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630977</v>
+        <v>85.18305253651613</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>287.1195335062935</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>283.8468401665497</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>61.44079943830488</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>56.40537843887837</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,10 +27543,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>22.31857408727994</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>166.6886794554817</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>80.46979591692059</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>114.6221763944659</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>210.24858052321</v>
+        <v>6.216728465121633</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>70.97051787495182</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>42.85541057795885</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,16 +27853,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>16.83481595771138</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,7 +27910,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>268.2618069011541</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.00173781849168</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28065,7 +28065,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>26.12824959513918</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28746,13 +28746,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634529518</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>130.3599693155844</v>
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K22" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901209</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901124</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29536,28 +29536,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>86.65052755599527</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>30.27223765901226</v>
+      </c>
+      <c r="R29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="R29" t="n">
-        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>98.75804948161215</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>109.5863713539249</v>
+        <v>24.86974620214374</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539249</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="N34" t="n">
-        <v>58.99686212484215</v>
+        <v>13.98970481639756</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265639</v>
       </c>
     </row>
     <row r="35">
@@ -30168,13 +30168,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.636002634528545</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30408,16 +30408,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
-        <v>5.63600263452858</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.24905561693328</v>
+        <v>36.24905561693145</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J46" t="n">
-        <v>36.24905561693328</v>
+        <v>36.24905561693166</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>315.402090037591</v>
       </c>
       <c r="L2" t="n">
-        <v>356.2803882241345</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129853</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>332.1801791258512</v>
+        <v>414.5561590745459</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>17.02852641789359</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129853</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>33.78584734179061</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>231.2959197480563</v>
       </c>
       <c r="M6" t="n">
-        <v>526.2289549413545</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327789</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>127.5938369108969</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>162.9211284231314</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>198.2933506465093</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>147.0691510340253</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,16 +35732,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>233.8188708867233</v>
+        <v>231.9364313068977</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35966,22 +35966,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5613130890187</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873215</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>315.4000036905431</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>22.71185353989334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610703</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449122</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>396.904887558667</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36452,7 +36452,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724877</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907917</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047975</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>22.71185353989303</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>531.1349729017816</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>22.71185353989308</v>
+        <v>310.668468864388</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>461.3664899133918</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.8896963221359</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>554.0708166997113</v>
+        <v>469.35419154793</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>302.7425208376231</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>78.41684924923067</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>188.1936109500821</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>572.7387264437913</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176587</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407349</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759449</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>304.2031452793559</v>
       </c>
       <c r="N34" t="n">
-        <v>244.0368964998009</v>
+        <v>199.0297391913564</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.3780833636428</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918831</v>
+        <v>237.1168699645221</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37315,7 +37315,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
         <v>444.4844453457863</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37482,7 +37482,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>572.7387264437913</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>205.7977317832975</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37704,16 +37704,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716074</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37859,19 +37859,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>458.4811686460869</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807268</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570417</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
         <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
         <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073106</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081899</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.70581962708577</v>
+        <v>39.70581962708393</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.174568144774208</v>
+        <v>6.174568144772594</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570417</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
         <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
         <v>281.5068738451906</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073106</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081899</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038424</v>
+        <v>99.92360348038434</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
